--- a/data_set_cleared.xlsx
+++ b/data_set_cleared.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFC6C7-B8D4-5547-9D37-CD9523253EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE5B17-646B-7845-8461-4A6B4EF6A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Наименование компании</t>
   </si>
@@ -92,598 +92,7 @@
     <t>Отчет о финансовых результатах (в тыс. руб.) на 01.01.2025</t>
   </si>
   <si>
-    <t>38 241</t>
-  </si>
-  <si>
-    <t>176 553</t>
-  </si>
-  <si>
-    <t>57 037</t>
-  </si>
-  <si>
-    <t>135 968</t>
-  </si>
-  <si>
-    <t>133 202</t>
-  </si>
-  <si>
-    <t>272 476</t>
-  </si>
-  <si>
-    <t>285 799</t>
-  </si>
-  <si>
-    <t>163 630</t>
-  </si>
-  <si>
-    <t>42 119</t>
-  </si>
-  <si>
-    <t>39 980</t>
-  </si>
-  <si>
-    <t>30 333 </t>
-  </si>
-  <si>
-    <t>439 714 </t>
-  </si>
-  <si>
-    <t>141 012</t>
-  </si>
-  <si>
-    <t>8 496 644 </t>
-  </si>
-  <si>
-    <t>534 612</t>
-  </si>
-  <si>
-    <t>158 255</t>
-  </si>
-  <si>
-    <t>9 224 306</t>
-  </si>
-  <si>
-    <t>3 421 752</t>
-  </si>
-  <si>
-    <t>13 155 695</t>
-  </si>
-  <si>
-    <t>3 691 843</t>
-  </si>
-  <si>
-    <t>3 034 521</t>
-  </si>
-  <si>
-    <t>275 272</t>
-  </si>
-  <si>
-    <t>179 936</t>
-  </si>
-  <si>
-    <t>223 801 </t>
-  </si>
-  <si>
-    <t>1 619 943</t>
-  </si>
-  <si>
-    <t>1 568 115 </t>
-  </si>
-  <si>
-    <t>1 200 305</t>
-  </si>
-  <si>
-    <t>397 780</t>
-  </si>
-  <si>
-    <t>1 951 </t>
-  </si>
-  <si>
-    <t>2 470 152</t>
-  </si>
-  <si>
-    <t>1 973 737</t>
-  </si>
-  <si>
-    <t>4 832 588 </t>
-  </si>
-  <si>
-    <t>9 437 998 </t>
-  </si>
-  <si>
-    <t>8 665 426</t>
-  </si>
-  <si>
-    <t>703 151</t>
-  </si>
-  <si>
-    <t>945 286</t>
-  </si>
-  <si>
-    <t>784 488</t>
-  </si>
-  <si>
-    <t>274 112</t>
-  </si>
-  <si>
-    <t>357 083 </t>
-  </si>
-  <si>
-    <t>93 615</t>
-  </si>
-  <si>
-    <t>408 393</t>
-  </si>
-  <si>
-    <t>1 046 580</t>
-  </si>
-  <si>
-    <t>75 686</t>
-  </si>
-  <si>
-    <t>1 158 693</t>
-  </si>
-  <si>
-    <t>928 047</t>
-  </si>
-  <si>
-    <t>711 563</t>
-  </si>
-  <si>
-    <t>121 912</t>
-  </si>
-  <si>
-    <t>123 458</t>
-  </si>
-  <si>
-    <t>90 293</t>
-  </si>
-  <si>
-    <t>51 945 </t>
-  </si>
-  <si>
-    <t>6 </t>
-  </si>
-  <si>
-    <t>28 539</t>
-  </si>
-  <si>
-    <t>288 211</t>
-  </si>
-  <si>
-    <t>79 565</t>
-  </si>
-  <si>
-    <t>158 124</t>
-  </si>
-  <si>
-    <t>278 097 </t>
-  </si>
-  <si>
-    <t>452 570</t>
-  </si>
-  <si>
-    <t>2 087 800</t>
-  </si>
-  <si>
-    <t>1 930 018</t>
-  </si>
-  <si>
-    <t>37 175 </t>
-  </si>
-  <si>
-    <t>121 812</t>
-  </si>
-  <si>
-    <t>94 176 </t>
-  </si>
-  <si>
-    <t>2 607 590 </t>
-  </si>
-  <si>
-    <t>1 953 564 </t>
-  </si>
-  <si>
-    <t>508 614 </t>
-  </si>
-  <si>
-    <t>197 000 0</t>
-  </si>
-  <si>
-    <t>1 502 303</t>
-  </si>
-  <si>
-    <t>1 662 184</t>
-  </si>
-  <si>
-    <t>62 900</t>
-  </si>
-  <si>
-    <t>4 196 424 </t>
-  </si>
-  <si>
-    <t>6 947 657</t>
-  </si>
-  <si>
-    <t>4 117 371</t>
-  </si>
-  <si>
-    <t>3 708 324</t>
-  </si>
-  <si>
-    <t>199 577</t>
-  </si>
-  <si>
-    <t>-79 938 </t>
-  </si>
-  <si>
-    <t>-215 845 </t>
-  </si>
-  <si>
-    <t>725 863</t>
-  </si>
-  <si>
-    <t>2 508</t>
-  </si>
-  <si>
-    <t>2 780 048</t>
-  </si>
-  <si>
-    <t>7 565 598</t>
-  </si>
-  <si>
-    <t>867 575</t>
-  </si>
-  <si>
-    <t>2 284 260 </t>
-  </si>
-  <si>
-    <t>3 703 414</t>
-  </si>
-  <si>
-    <t>5 790 262</t>
-  </si>
-  <si>
-    <t>747 700 </t>
-  </si>
-  <si>
-    <t>7 088 119</t>
-  </si>
-  <si>
-    <t>18 780 480</t>
-  </si>
-  <si>
-    <t>9 820 022 </t>
-  </si>
-  <si>
-    <t>7 905 701</t>
-  </si>
-  <si>
-    <t>977 869 </t>
-  </si>
-  <si>
-    <t>107 962</t>
-  </si>
-  <si>
-    <t>70 582</t>
-  </si>
-  <si>
-    <t>342 479</t>
-  </si>
-  <si>
-    <t>70 322</t>
-  </si>
-  <si>
-    <t>2 445</t>
-  </si>
-  <si>
-    <t>49 172 </t>
-  </si>
-  <si>
-    <t>410 493</t>
-  </si>
-  <si>
-    <t>499 233</t>
-  </si>
-  <si>
-    <t>850 820</t>
-  </si>
-  <si>
-    <t>653 388</t>
-  </si>
-  <si>
-    <t>29 480</t>
-  </si>
-  <si>
-    <t>12 311</t>
-  </si>
-  <si>
-    <t>7 110</t>
-  </si>
-  <si>
-    <t>18 403 </t>
-  </si>
-  <si>
-    <t>791 459</t>
-  </si>
-  <si>
-    <t>648 291 </t>
-  </si>
-  <si>
-    <t>738 152</t>
-  </si>
-  <si>
-    <t>324 247 </t>
-  </si>
-  <si>
-    <t>223 713</t>
-  </si>
-  <si>
-    <t>1 671 597</t>
-  </si>
-  <si>
-    <t>2 222 594 </t>
-  </si>
-  <si>
-    <t>2 216 338</t>
-  </si>
-  <si>
-    <t>1 807 859</t>
-  </si>
-  <si>
-    <t>338 789</t>
-  </si>
-  <si>
-    <t>256 856</t>
-  </si>
-  <si>
-    <t>192 597</t>
-  </si>
-  <si>
-    <t>275 469</t>
-  </si>
-  <si>
-    <t>250 307 </t>
-  </si>
-  <si>
-    <t>408 855 </t>
-  </si>
-  <si>
-    <t>8 990 </t>
-  </si>
-  <si>
-    <t>412 982 </t>
-  </si>
-  <si>
-    <t>61 774</t>
-  </si>
-  <si>
-    <t>202 504</t>
-  </si>
-  <si>
-    <t>128 005</t>
-  </si>
-  <si>
-    <t>970 763 </t>
-  </si>
-  <si>
-    <t>959 668</t>
-  </si>
-  <si>
-    <t>565 002 </t>
-  </si>
-  <si>
-    <t>79 739</t>
-  </si>
-  <si>
-    <t>24 464</t>
-  </si>
-  <si>
-    <t>10 266</t>
-  </si>
-  <si>
-    <t>583 </t>
-  </si>
-  <si>
-    <t>142 592 </t>
-  </si>
-  <si>
-    <t>154 60</t>
-  </si>
-  <si>
-    <t>156 668</t>
-  </si>
-  <si>
-    <t>132 917</t>
-  </si>
-  <si>
-    <t>27 800 </t>
-  </si>
-  <si>
-    <t>1 660</t>
-  </si>
-  <si>
-    <t>293 003</t>
-  </si>
-  <si>
-    <t>457 821</t>
-  </si>
-  <si>
-    <t>1 727 360</t>
-  </si>
-  <si>
-    <t>1 700 163</t>
-  </si>
-  <si>
-    <t>14 352</t>
-  </si>
-  <si>
-    <t>23 108</t>
-  </si>
-  <si>
-    <t>18 289 </t>
-  </si>
-  <si>
-    <t>153 021 </t>
-  </si>
-  <si>
-    <t>356 260</t>
-  </si>
-  <si>
-    <t>832 239</t>
-  </si>
-  <si>
-    <t>1 883 373</t>
-  </si>
-  <si>
-    <t>42 872</t>
-  </si>
-  <si>
-    <t>377 319 </t>
-  </si>
-  <si>
-    <t>634 159</t>
-  </si>
-  <si>
-    <t>566 321 </t>
-  </si>
-  <si>
-    <t>1 780 284</t>
-  </si>
-  <si>
-    <t>3 358 083</t>
-  </si>
-  <si>
-    <t>1 125 459</t>
-  </si>
-  <si>
-    <t>957 888</t>
-  </si>
-  <si>
-    <t>167 571</t>
-  </si>
-  <si>
-    <t>12 497</t>
-  </si>
-  <si>
-    <t>9 998 </t>
-  </si>
-  <si>
-    <t>262 671</t>
-  </si>
-  <si>
-    <t>130 663</t>
-  </si>
-  <si>
-    <t>503 888</t>
-  </si>
-  <si>
-    <t>216 163</t>
-  </si>
-  <si>
-    <t>338 323</t>
-  </si>
-  <si>
-    <t>22 152</t>
-  </si>
-  <si>
-    <t>246 439</t>
-  </si>
-  <si>
-    <t>510 937</t>
-  </si>
-  <si>
-    <t>1 168 883</t>
-  </si>
-  <si>
-    <t>2 947 537</t>
-  </si>
-  <si>
-    <t>2 865 283</t>
-  </si>
-  <si>
-    <t>3 226</t>
-  </si>
-  <si>
-    <t>37 367 </t>
-  </si>
-  <si>
-    <t>34 739</t>
-  </si>
-  <si>
-    <t>142 852</t>
-  </si>
-  <si>
-    <t>171 340</t>
-  </si>
-  <si>
-    <t>23 644</t>
-  </si>
-  <si>
-    <t>21 600 </t>
-  </si>
-  <si>
-    <t>20 204</t>
-  </si>
-  <si>
-    <t>216 380 </t>
-  </si>
-  <si>
-    <t>396 111</t>
-  </si>
-  <si>
-    <t>1 620 418 </t>
-  </si>
-  <si>
-    <t>1 534 321</t>
-  </si>
-  <si>
-    <t>32 423</t>
-  </si>
-  <si>
-    <t>1 114</t>
-  </si>
-  <si>
-    <t>18 571</t>
-  </si>
-  <si>
-    <t>32 818 </t>
-  </si>
-  <si>
-    <t>9 784 </t>
-  </si>
-  <si>
-    <t>57 544</t>
-  </si>
-  <si>
-    <t>82 765</t>
-  </si>
-  <si>
-    <t>23 354</t>
-  </si>
-  <si>
-    <t>122 039</t>
-  </si>
-  <si>
-    <t>462 417 </t>
-  </si>
-  <si>
-    <t>402 520 </t>
-  </si>
-  <si>
-    <t>18 722</t>
-  </si>
-  <si>
-    <t>9 428</t>
-  </si>
-  <si>
-    <t>5 582</t>
-  </si>
-  <si>
     <t>Данные Клиента</t>
-  </si>
-  <si>
-    <t>1 381 765</t>
   </si>
   <si>
     <t>1</t>
@@ -1775,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A2:W902"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1821,7 +1230,7 @@
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
@@ -1885,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>411</v>
+        <v>214</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -1897,16 +1306,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>412</v>
+        <v>215</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>413</v>
+        <v>216</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>416</v>
+        <v>219</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>6</v>
@@ -1915,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>417</v>
+        <v>220</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>8</v>
@@ -1924,10 +1333,10 @@
         <v>9</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>10</v>
@@ -1953,10 +1362,10 @@
     </row>
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12">
         <v>17</v>
@@ -2025,10 +1434,10 @@
     </row>
     <row r="6" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12">
         <v>8</v>
@@ -2097,10 +1506,10 @@
     </row>
     <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12">
         <v>14</v>
@@ -2169,10 +1578,10 @@
     </row>
     <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12">
         <v>5</v>
@@ -2241,10 +1650,10 @@
     </row>
     <row r="9" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12">
         <v>6</v>
@@ -2253,14 +1662,14 @@
         <v>33</v>
       </c>
       <c r="E9" s="12">
-        <v>30537299.760000002</v>
+        <v>30537299</v>
       </c>
       <c r="F9" s="12">
         <v>23299873.329999998</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>7237426.4300000034</v>
+        <v>7237425.6700000018</v>
       </c>
       <c r="H9" s="13">
         <v>409564</v>
@@ -2313,10 +1722,10 @@
     </row>
     <row r="10" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>319</v>
+        <v>122</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="C10" s="12">
         <v>13</v>
@@ -2385,10 +1794,10 @@
     </row>
     <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>7</v>
@@ -2397,14 +1806,14 @@
         <v>41</v>
       </c>
       <c r="E11" s="12">
-        <v>75132904.019999996</v>
+        <v>75132904</v>
       </c>
       <c r="F11" s="12">
         <v>45426186.590000004</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>29706717.429999992</v>
+        <v>29706717.409999996</v>
       </c>
       <c r="H11" s="13">
         <v>1783995</v>
@@ -2457,10 +1866,10 @@
     </row>
     <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="C12" s="12">
         <v>5</v>
@@ -2469,14 +1878,14 @@
         <v>9</v>
       </c>
       <c r="E12" s="12">
-        <v>2727195.65</v>
+        <v>2727195</v>
       </c>
       <c r="F12" s="12">
         <v>1655262.27</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>1071933.3799999999</v>
+        <v>1071932.73</v>
       </c>
       <c r="H12" s="13">
         <v>392116</v>
@@ -2529,10 +1938,10 @@
     </row>
     <row r="13" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12">
         <v>6</v>
@@ -2541,14 +1950,14 @@
         <v>14</v>
       </c>
       <c r="E13" s="12">
-        <v>10135453.6</v>
+        <v>10135453</v>
       </c>
       <c r="F13" s="12">
         <v>3005687.86</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>7129765.7400000002</v>
+        <v>7129765.1400000006</v>
       </c>
       <c r="H13" s="13">
         <v>1548003</v>
@@ -2601,10 +2010,10 @@
     </row>
     <row r="14" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="C14" s="12">
         <v>134</v>
@@ -2613,7 +2022,7 @@
         <v>291</v>
       </c>
       <c r="E14" s="12">
-        <v>290562360.41000003</v>
+        <v>290562360</v>
       </c>
       <c r="F14" s="12">
         <f>114926047.36+52445.25</f>
@@ -2621,7 +2030,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>175583867.80000001</v>
+        <v>175583867.38999999</v>
       </c>
       <c r="H14" s="13">
         <v>4899525</v>
@@ -2674,10 +2083,10 @@
     </row>
     <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="C15" s="12">
         <v>5</v>
@@ -2686,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="12">
-        <v>3721623.39</v>
+        <v>3721623</v>
       </c>
       <c r="F15" s="12">
         <f>2036399.97+425000</f>
@@ -2694,7 +2103,7 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>1260223.4200000004</v>
+        <v>1260223.0300000003</v>
       </c>
       <c r="H15" s="13">
         <v>750493</v>
@@ -2747,10 +2156,10 @@
     </row>
     <row r="16" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C16" s="12">
         <v>7</v>
@@ -2759,14 +2168,14 @@
         <v>26</v>
       </c>
       <c r="E16" s="12">
-        <v>3772691.69</v>
+        <v>3772691</v>
       </c>
       <c r="F16" s="12">
         <v>2019474.52</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G19" si="1">E16-F16</f>
-        <v>1753217.17</v>
+        <v>1753216.48</v>
       </c>
       <c r="H16" s="13">
         <v>40226</v>
@@ -2819,10 +2228,10 @@
     </row>
     <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="C17" s="12">
         <v>9</v>
@@ -2831,14 +2240,14 @@
         <v>120</v>
       </c>
       <c r="E17" s="12">
-        <v>47613534.5</v>
+        <v>47613534</v>
       </c>
       <c r="F17" s="12">
         <v>23426473.870000001</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>24187060.629999999</v>
+        <v>24187060.129999999</v>
       </c>
       <c r="H17" s="13">
         <v>607880</v>
@@ -2891,10 +2300,10 @@
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="C18" s="12">
         <v>63</v>
@@ -2903,14 +2312,14 @@
         <v>113</v>
       </c>
       <c r="E18" s="12">
-        <v>14347776.869999999</v>
+        <v>14347776</v>
       </c>
       <c r="F18" s="12">
         <v>8150688.5</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>6197088.3699999992</v>
+        <v>6197087.5</v>
       </c>
       <c r="H18" s="13">
         <v>84553</v>
@@ -2963,10 +2372,10 @@
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C19" s="12">
         <v>9</v>
@@ -2975,14 +2384,14 @@
         <v>51</v>
       </c>
       <c r="E19" s="12">
-        <v>3903067.12</v>
+        <v>3903067</v>
       </c>
       <c r="F19" s="12">
         <v>2654829.39</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>1248237.73</v>
+        <v>1248237.6099999999</v>
       </c>
       <c r="H19" s="13">
         <v>276577</v>
@@ -3035,10 +2444,10 @@
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12">
         <v>13</v>
@@ -3047,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="12">
-        <v>20549971.16</v>
+        <v>20549971</v>
       </c>
       <c r="F20" s="12">
         <f>13885204.93</f>
@@ -3055,7 +2464,7 @@
       </c>
       <c r="G20" s="12">
         <f t="shared" ref="G20:G101" si="2">E20-F20</f>
-        <v>6664766.2300000004</v>
+        <v>6664766.0700000003</v>
       </c>
       <c r="H20" s="13">
         <v>282087</v>
@@ -3108,10 +2517,10 @@
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="C21" s="12">
         <v>23</v>
@@ -3120,14 +2529,14 @@
         <v>27</v>
       </c>
       <c r="E21" s="12">
-        <v>6868946.7300000004</v>
+        <v>6868946</v>
       </c>
       <c r="F21" s="12">
         <v>3477100.19</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>3391846.5400000005</v>
+        <v>3391845.81</v>
       </c>
       <c r="H21" s="13">
         <v>457690</v>
@@ -3180,10 +2589,10 @@
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>331</v>
+        <v>134</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12">
         <v>21</v>
@@ -3252,10 +2661,10 @@
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="C23" s="12">
         <v>17</v>
@@ -3264,14 +2673,14 @@
         <v>23</v>
       </c>
       <c r="E23" s="12">
-        <v>16052878.359999999</v>
+        <v>16052878</v>
       </c>
       <c r="F23" s="12">
         <v>7374563.9699999997</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>8678314.3900000006</v>
+        <v>8678314.0300000012</v>
       </c>
       <c r="H23" s="13">
         <v>170755</v>
@@ -3324,10 +2733,10 @@
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12">
         <v>9</v>
@@ -3336,14 +2745,14 @@
         <v>11</v>
       </c>
       <c r="E24" s="12">
-        <v>35320722.270000003</v>
+        <v>35320722</v>
       </c>
       <c r="F24" s="12">
         <v>9199104.6600000001</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>26121617.610000003</v>
+        <v>26121617.34</v>
       </c>
       <c r="H24" s="13">
         <v>337924</v>
@@ -3396,10 +2805,10 @@
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="C25" s="12">
         <v>2</v>
@@ -3408,14 +2817,14 @@
         <v>6</v>
       </c>
       <c r="E25" s="12">
-        <v>1725373.89</v>
+        <v>1725373</v>
       </c>
       <c r="F25" s="12">
         <v>737710.87</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="2"/>
-        <v>987663.0199999999</v>
+        <v>987662.13</v>
       </c>
       <c r="H25" s="13">
         <v>110244</v>
@@ -3468,10 +2877,10 @@
     </row>
     <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="C26" s="12">
         <v>28</v>
@@ -3480,14 +2889,14 @@
         <v>34</v>
       </c>
       <c r="E26" s="12">
-        <v>6636783.8399999999</v>
+        <v>6636783</v>
       </c>
       <c r="F26" s="12">
         <v>1347310.21</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="2"/>
-        <v>5289473.63</v>
+        <v>5289472.79</v>
       </c>
       <c r="H26" s="13">
         <v>225433</v>
@@ -3540,10 +2949,10 @@
     </row>
     <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>336</v>
+        <v>139</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="C27" s="12">
         <v>4</v>
@@ -3612,10 +3021,10 @@
     </row>
     <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="C28" s="12">
         <v>23</v>
@@ -3624,14 +3033,14 @@
         <v>37</v>
       </c>
       <c r="E28" s="12">
-        <v>4171717.25</v>
+        <v>4171717</v>
       </c>
       <c r="F28" s="12">
         <v>1796683.11</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="2"/>
-        <v>2375034.1399999997</v>
+        <v>2375033.8899999997</v>
       </c>
       <c r="H28" s="13">
         <v>27732</v>
@@ -3684,10 +3093,10 @@
     </row>
     <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>338</v>
+        <v>141</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C29" s="12">
         <v>151</v>
@@ -3696,14 +3105,14 @@
         <v>154</v>
       </c>
       <c r="E29" s="12">
-        <v>584865.67000000004</v>
+        <v>584865</v>
       </c>
       <c r="F29" s="12">
         <v>277383.99</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="2"/>
-        <v>307481.68000000005</v>
+        <v>307481.01</v>
       </c>
       <c r="H29" s="13">
         <v>369</v>
@@ -3756,10 +3165,10 @@
     </row>
     <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="C30" s="12">
         <v>2</v>
@@ -3768,14 +3177,14 @@
         <v>17</v>
       </c>
       <c r="E30" s="12">
-        <v>24243770.82</v>
+        <v>24243770</v>
       </c>
       <c r="F30" s="12">
         <v>5663512.8700000001</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="2"/>
-        <v>18580257.949999999</v>
+        <v>18580257.129999999</v>
       </c>
       <c r="H30" s="13">
         <v>536063</v>
@@ -3828,10 +3237,10 @@
     </row>
     <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>340</v>
+        <v>143</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="C31" s="12">
         <v>5</v>
@@ -3840,14 +3249,14 @@
         <v>17</v>
       </c>
       <c r="E31" s="12">
-        <v>5821963.7000000002</v>
+        <v>5821963</v>
       </c>
       <c r="F31" s="12">
         <v>1748952.99</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="2"/>
-        <v>4073010.71</v>
+        <v>4073010.01</v>
       </c>
       <c r="H31" s="13">
         <v>613421</v>
@@ -3900,10 +3309,10 @@
     </row>
     <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>341</v>
+        <v>144</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="C32" s="12">
         <v>2</v>
@@ -3912,14 +3321,14 @@
         <v>2</v>
       </c>
       <c r="E32" s="12">
-        <v>2059732.08</v>
+        <v>2059732</v>
       </c>
       <c r="F32" s="12">
         <v>678097.05</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="2"/>
-        <v>1381635.03</v>
+        <v>1381634.95</v>
       </c>
       <c r="H32" s="13">
         <v>168731</v>
@@ -3972,10 +3381,10 @@
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="C33" s="12">
         <v>13</v>
@@ -3984,14 +3393,14 @@
         <v>31</v>
       </c>
       <c r="E33" s="12">
-        <v>106770732.43000001</v>
+        <v>106770732</v>
       </c>
       <c r="F33" s="12">
         <v>68143208.200000003</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>38627524.230000004</v>
+        <v>38627523.799999997</v>
       </c>
       <c r="H33" s="13">
         <v>2708083</v>
@@ -4044,10 +3453,10 @@
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="C34" s="12">
         <v>13</v>
@@ -4056,14 +3465,14 @@
         <v>40</v>
       </c>
       <c r="E34" s="12">
-        <v>244865.18</v>
+        <v>244865</v>
       </c>
       <c r="F34" s="12">
         <v>244865.18</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.17999999999301508</v>
       </c>
       <c r="H34" s="13">
         <v>284980</v>
@@ -4116,10 +3525,10 @@
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>344</v>
+        <v>147</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="C35" s="12">
         <v>9</v>
@@ -4128,14 +3537,14 @@
         <v>13</v>
       </c>
       <c r="E35" s="12">
-        <v>804065.63</v>
+        <v>804065</v>
       </c>
       <c r="F35" s="12">
         <v>286478.34000000003</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="2"/>
-        <v>517587.29</v>
+        <v>517586.66</v>
       </c>
       <c r="H35" s="13">
         <v>4945</v>
@@ -4188,10 +3597,10 @@
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="C36" s="12">
         <v>3</v>
@@ -4200,14 +3609,14 @@
         <v>13</v>
       </c>
       <c r="E36" s="12">
-        <v>55075887.640000001</v>
+        <v>55075887</v>
       </c>
       <c r="F36" s="12">
         <v>10688033.390000001</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="2"/>
-        <v>44387854.25</v>
+        <v>44387853.609999999</v>
       </c>
       <c r="H36" s="13">
         <v>62867</v>
@@ -4260,10 +3669,10 @@
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="C37" s="12">
         <v>11</v>
@@ -4272,14 +3681,14 @@
         <v>32</v>
       </c>
       <c r="E37" s="12">
-        <v>58390914.159999996</v>
+        <v>58390914</v>
       </c>
       <c r="F37" s="12">
         <v>23236491.600000001</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="2"/>
-        <v>35154422.559999995</v>
+        <v>35154422.399999999</v>
       </c>
       <c r="H37" s="13">
         <v>2284252</v>
@@ -4332,10 +3741,10 @@
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="C38" s="12">
         <v>21</v>
@@ -4344,14 +3753,14 @@
         <v>97</v>
       </c>
       <c r="E38" s="12">
-        <v>28770779.300000001</v>
+        <v>28770779</v>
       </c>
       <c r="F38" s="12">
         <v>16574624.59</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="2"/>
-        <v>12196154.710000001</v>
+        <v>12196154.41</v>
       </c>
       <c r="H38" s="13">
         <v>3441657</v>
@@ -4404,10 +3813,10 @@
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="C39" s="12">
         <v>3</v>
@@ -4476,10 +3885,10 @@
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="C40" s="12">
         <v>2</v>
@@ -4488,14 +3897,14 @@
         <v>2</v>
       </c>
       <c r="E40" s="12">
-        <v>1019238.58</v>
+        <v>1019238</v>
       </c>
       <c r="F40" s="12">
         <v>884311.77</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="2"/>
-        <v>134926.80999999994</v>
+        <v>134926.22999999998</v>
       </c>
       <c r="H40" s="13">
         <v>346808</v>
@@ -4548,10 +3957,10 @@
     </row>
     <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>350</v>
+        <v>153</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="C41" s="12">
         <v>21</v>
@@ -4560,15 +3969,14 @@
         <v>143</v>
       </c>
       <c r="E41" s="12">
-        <f>38943282.47+32685684.06</f>
-        <v>71628966.530000001</v>
+        <v>71628967</v>
       </c>
       <c r="F41" s="12">
         <v>30977810.940000001</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="2"/>
-        <v>40651155.590000004</v>
+        <v>40651156.060000002</v>
       </c>
       <c r="H41" s="13">
         <v>738669</v>
@@ -4621,10 +4029,10 @@
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>351</v>
+        <v>154</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="C42" s="12">
         <v>28</v>
@@ -4633,14 +4041,14 @@
         <v>117</v>
       </c>
       <c r="E42" s="12">
-        <v>896311.88</v>
+        <v>896311</v>
       </c>
       <c r="F42" s="12">
         <v>646179.82999999996</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="2"/>
-        <v>250132.05000000005</v>
+        <v>250131.17000000004</v>
       </c>
       <c r="H42" s="13">
         <v>13941</v>
@@ -4693,10 +4101,10 @@
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="C43" s="12">
         <v>8</v>
@@ -4765,10 +4173,10 @@
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="C44" s="12">
         <v>14</v>
@@ -4837,10 +4245,10 @@
     </row>
     <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>354</v>
+        <v>157</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="C45" s="12">
         <v>6</v>
@@ -4849,14 +4257,14 @@
         <v>17</v>
       </c>
       <c r="E45" s="12">
-        <v>33756659.710000001</v>
+        <v>33756659</v>
       </c>
       <c r="F45" s="12">
         <v>5950814.3499999996</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="2"/>
-        <v>27805845.359999999</v>
+        <v>27805844.649999999</v>
       </c>
       <c r="H45" s="13">
         <v>1571906</v>
@@ -4909,10 +4317,10 @@
     </row>
     <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>355</v>
+        <v>158</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="C46" s="12">
         <v>4</v>
@@ -4981,10 +4389,10 @@
     </row>
     <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>356</v>
+        <v>159</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="C47" s="12">
         <v>5</v>
@@ -4993,14 +4401,14 @@
         <v>8</v>
       </c>
       <c r="E47" s="12">
-        <v>8023428.75</v>
+        <v>8023428</v>
       </c>
       <c r="F47" s="12">
         <v>1442351.32</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="2"/>
-        <v>6581077.4299999997</v>
+        <v>6581076.6799999997</v>
       </c>
       <c r="H47" s="13">
         <v>76655</v>
@@ -5053,10 +4461,10 @@
     </row>
     <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>357</v>
+        <v>160</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="C48" s="12">
         <v>25</v>
@@ -5065,14 +4473,14 @@
         <v>91</v>
       </c>
       <c r="E48" s="12">
-        <v>52522466.079999998</v>
+        <v>52522466</v>
       </c>
       <c r="F48" s="12">
         <v>17138197.989999998</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="2"/>
-        <v>35384268.090000004</v>
+        <v>35384268.010000005</v>
       </c>
       <c r="H48" s="13">
         <v>165203</v>
@@ -5125,10 +4533,10 @@
     </row>
     <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="C49" s="12">
         <v>7</v>
@@ -5197,10 +4605,10 @@
     </row>
     <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>359</v>
+        <v>162</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="C50" s="12">
         <v>6</v>
@@ -5209,14 +4617,14 @@
         <v>13</v>
       </c>
       <c r="E50" s="12">
-        <v>3894274.28</v>
+        <v>3894274</v>
       </c>
       <c r="F50" s="12">
         <v>2920199.18</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="2"/>
-        <v>974075.09999999963</v>
+        <v>974074.81999999983</v>
       </c>
       <c r="H50" s="13">
         <v>194070</v>
@@ -5269,10 +4677,10 @@
     </row>
     <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="C51" s="12">
         <v>55</v>
@@ -5281,14 +4689,14 @@
         <v>367</v>
       </c>
       <c r="E51" s="12">
-        <v>361833580.00999999</v>
+        <v>361833580</v>
       </c>
       <c r="F51" s="12">
         <v>147955122.19999999</v>
       </c>
       <c r="G51" s="12">
         <f t="shared" si="2"/>
-        <v>213878457.81</v>
+        <v>213878457.80000001</v>
       </c>
       <c r="H51" s="13">
         <v>7175167</v>
@@ -5341,10 +4749,10 @@
     </row>
     <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -5353,14 +4761,14 @@
         <v>1</v>
       </c>
       <c r="E52" s="12">
-        <v>545446.39</v>
+        <v>545446</v>
       </c>
       <c r="F52" s="12">
         <v>521189.2</v>
       </c>
       <c r="G52" s="12">
         <f t="shared" si="2"/>
-        <v>24257.190000000002</v>
+        <v>24256.799999999988</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -5413,10 +4821,10 @@
     </row>
     <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="C53" s="12">
         <v>12</v>
@@ -5425,14 +4833,14 @@
         <v>14</v>
       </c>
       <c r="E53" s="12">
-        <v>53256951.780000001</v>
+        <v>53256951</v>
       </c>
       <c r="F53" s="12">
         <v>29751083.780000001</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="2"/>
-        <v>23505868</v>
+        <v>23505867.219999999</v>
       </c>
       <c r="H53" s="13">
         <v>1688354</v>
@@ -5485,10 +4893,10 @@
     </row>
     <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="C54" s="12">
         <v>9</v>
@@ -5497,14 +4905,14 @@
         <v>11</v>
       </c>
       <c r="E54" s="12">
-        <v>40774780.520000003</v>
+        <v>40774780</v>
       </c>
       <c r="F54" s="12">
         <v>21683050.649999999</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="2"/>
-        <v>19091729.870000005</v>
+        <v>19091729.350000001</v>
       </c>
       <c r="H54" s="13">
         <v>98987</v>
@@ -5557,10 +4965,10 @@
     </row>
     <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="C55" s="12">
         <v>3</v>
@@ -5569,14 +4977,14 @@
         <v>3</v>
       </c>
       <c r="E55" s="12">
-        <v>9333186.0600000005</v>
+        <v>9333186</v>
       </c>
       <c r="F55" s="12">
         <v>6369037.0999999996</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="2"/>
-        <v>2964148.9600000009</v>
+        <v>2964148.9000000004</v>
       </c>
       <c r="H55" s="13">
         <v>37722</v>
@@ -5629,10 +5037,10 @@
     </row>
     <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>365</v>
+        <v>168</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="C56" s="12">
         <v>25</v>
@@ -5641,14 +5049,14 @@
         <v>87</v>
       </c>
       <c r="E56" s="12">
-        <v>9801602.5</v>
+        <v>9801602</v>
       </c>
       <c r="F56" s="12">
         <v>4509259.45</v>
       </c>
       <c r="G56" s="12">
         <f t="shared" si="2"/>
-        <v>5292343.05</v>
+        <v>5292342.55</v>
       </c>
       <c r="H56" s="13">
         <v>144816</v>
@@ -5701,10 +5109,10 @@
     </row>
     <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>366</v>
+        <v>169</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="C57" s="12">
         <v>4</v>
@@ -5713,14 +5121,14 @@
         <v>4</v>
       </c>
       <c r="E57" s="12">
-        <v>6487267.8499999996</v>
+        <v>6487267</v>
       </c>
       <c r="F57" s="12">
         <v>5850497.9199999999</v>
       </c>
       <c r="G57" s="12">
         <f t="shared" si="2"/>
-        <v>636769.9299999997</v>
+        <v>636769.08000000007</v>
       </c>
       <c r="H57" s="13">
         <v>79413</v>
@@ -5773,10 +5181,10 @@
     </row>
     <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="C58" s="12">
         <v>3</v>
@@ -5845,10 +5253,10 @@
     </row>
     <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>368</v>
+        <v>171</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="C59" s="12">
         <v>3</v>
@@ -5857,14 +5265,14 @@
         <v>5</v>
       </c>
       <c r="E59" s="12">
-        <v>3893303.97</v>
+        <v>3893303</v>
       </c>
       <c r="F59" s="12">
         <v>2939910.27</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="2"/>
-        <v>953393.70000000019</v>
+        <v>953392.73</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
@@ -5911,10 +5319,10 @@
     </row>
     <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="C60" s="12">
         <v>8</v>
@@ -5983,10 +5391,10 @@
     </row>
     <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="C61" s="12">
         <v>6</v>
@@ -5995,70 +5403,70 @@
         <v>22</v>
       </c>
       <c r="E61" s="12">
-        <v>9461645.1199999992</v>
+        <v>9461645</v>
       </c>
       <c r="F61" s="12">
         <v>7032582.1799999997</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="2"/>
-        <v>2429062.9399999995</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>178</v>
+        <v>2429062.8200000003</v>
+      </c>
+      <c r="H61" s="13">
+        <v>262671</v>
       </c>
       <c r="I61" s="13">
         <v>0</v>
       </c>
-      <c r="J61" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>180</v>
+      <c r="J61" s="13">
+        <v>130663</v>
+      </c>
+      <c r="K61" s="13">
+        <v>503888</v>
       </c>
       <c r="L61" s="13">
         <v>0</v>
       </c>
-      <c r="M61" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="O61" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="P61" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="R61" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="S61" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="T61" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="U61" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="V61" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>191</v>
+      <c r="M61" s="13">
+        <v>216163</v>
+      </c>
+      <c r="N61" s="13">
+        <v>338323</v>
+      </c>
+      <c r="O61" s="13">
+        <v>22152</v>
+      </c>
+      <c r="P61" s="13">
+        <v>246439</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>510937</v>
+      </c>
+      <c r="R61" s="13">
+        <v>1168883</v>
+      </c>
+      <c r="S61" s="13">
+        <v>2947537</v>
+      </c>
+      <c r="T61" s="13">
+        <v>2865283</v>
+      </c>
+      <c r="U61" s="13">
+        <v>3226</v>
+      </c>
+      <c r="V61" s="13">
+        <v>37367</v>
+      </c>
+      <c r="W61" s="13">
+        <v>34739</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>371</v>
+        <v>174</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="C62" s="12">
         <v>17</v>
@@ -6067,14 +5475,14 @@
         <v>30</v>
       </c>
       <c r="E62" s="12">
-        <v>684495.41</v>
+        <v>684495</v>
       </c>
       <c r="F62" s="12">
         <v>206384.76</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="2"/>
-        <v>478110.65</v>
+        <v>478110.24</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -6082,20 +5490,20 @@
       <c r="I62" s="13">
         <v>0</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>20</v>
+      <c r="J62" s="13">
+        <v>38241</v>
+      </c>
+      <c r="K62" s="13">
+        <v>176553</v>
       </c>
       <c r="L62" s="13">
         <v>0</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>22</v>
+      <c r="M62" s="13">
+        <v>57037</v>
+      </c>
+      <c r="N62" s="13">
+        <v>135968</v>
       </c>
       <c r="O62" s="13">
         <v>0</v>
@@ -6103,34 +5511,34 @@
       <c r="P62" s="13">
         <v>0</v>
       </c>
-      <c r="Q62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T62" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V62" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>29</v>
+      <c r="Q62" s="13">
+        <v>133202</v>
+      </c>
+      <c r="R62" s="13">
+        <v>272476</v>
+      </c>
+      <c r="S62" s="13">
+        <v>285799</v>
+      </c>
+      <c r="T62" s="13">
+        <v>163630</v>
+      </c>
+      <c r="U62" s="13">
+        <v>42119</v>
+      </c>
+      <c r="V62" s="13">
+        <v>39980</v>
+      </c>
+      <c r="W62" s="13">
+        <v>30333</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>372</v>
+        <v>175</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="C63" s="12">
         <v>3</v>
@@ -6139,35 +5547,35 @@
         <v>24</v>
       </c>
       <c r="E63" s="12">
-        <v>50126648.020000003</v>
+        <v>50126648</v>
       </c>
       <c r="F63" s="12">
         <v>16813814.100000001</v>
       </c>
       <c r="G63" s="12">
         <f t="shared" si="2"/>
-        <v>33312833.920000002</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>35</v>
+        <v>33312833.899999999</v>
+      </c>
+      <c r="H63" s="13">
+        <v>439714</v>
+      </c>
+      <c r="I63" s="13">
+        <v>141012</v>
+      </c>
+      <c r="J63" s="13">
+        <v>1381765</v>
+      </c>
+      <c r="K63" s="13">
+        <v>8496644</v>
+      </c>
+      <c r="L63" s="13">
+        <v>534612</v>
+      </c>
+      <c r="M63" s="13">
+        <v>158255</v>
+      </c>
+      <c r="N63" s="13">
+        <v>9224306</v>
       </c>
       <c r="O63" s="13">
         <v>0</v>
@@ -6175,34 +5583,34 @@
       <c r="P63" s="13">
         <v>0</v>
       </c>
-      <c r="Q63" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S63" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U63" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="V63" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>42</v>
+      <c r="Q63" s="13">
+        <v>3421752</v>
+      </c>
+      <c r="R63" s="13">
+        <v>13155695</v>
+      </c>
+      <c r="S63" s="13">
+        <v>3691843</v>
+      </c>
+      <c r="T63" s="13">
+        <v>3034521</v>
+      </c>
+      <c r="U63" s="13">
+        <v>275272</v>
+      </c>
+      <c r="V63" s="13">
+        <v>179936</v>
+      </c>
+      <c r="W63" s="13">
+        <v>223801</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="C64" s="12">
         <v>6</v>
@@ -6220,26 +5628,26 @@
         <f t="shared" si="2"/>
         <v>7310192</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>43</v>
+      <c r="H64" s="13">
+        <v>1619943</v>
       </c>
       <c r="I64" s="13">
         <v>600</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>48</v>
+      <c r="J64" s="13">
+        <v>1568115</v>
+      </c>
+      <c r="K64" s="13">
+        <v>1200305</v>
+      </c>
+      <c r="L64" s="13">
+        <v>397780</v>
+      </c>
+      <c r="M64" s="13">
+        <v>1951</v>
+      </c>
+      <c r="N64" s="13">
+        <v>2470152</v>
       </c>
       <c r="O64" s="13">
         <v>0</v>
@@ -6247,34 +5655,34 @@
       <c r="P64" s="13">
         <v>0</v>
       </c>
-      <c r="Q64" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="S64" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="U64" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="V64" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>55</v>
+      <c r="Q64" s="13">
+        <v>1973737</v>
+      </c>
+      <c r="R64" s="13">
+        <v>4832588</v>
+      </c>
+      <c r="S64" s="13">
+        <v>9437998</v>
+      </c>
+      <c r="T64" s="13">
+        <v>8665426</v>
+      </c>
+      <c r="U64" s="13">
+        <v>703151</v>
+      </c>
+      <c r="V64" s="13">
+        <v>945286</v>
+      </c>
+      <c r="W64" s="13">
+        <v>784488</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>374</v>
+        <v>177</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="C65" s="12">
         <v>2</v>
@@ -6283,35 +5691,35 @@
         <v>3</v>
       </c>
       <c r="E65" s="12">
-        <v>1355061.8</v>
+        <v>1355061</v>
       </c>
       <c r="F65" s="12">
         <v>866822</v>
       </c>
       <c r="G65" s="12">
         <f t="shared" si="2"/>
-        <v>488239.80000000005</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>56</v>
+        <v>488239</v>
+      </c>
+      <c r="H65" s="13">
+        <v>274112</v>
       </c>
       <c r="I65" s="13">
         <v>699</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>58</v>
+      <c r="J65" s="13">
+        <v>357083</v>
+      </c>
+      <c r="K65" s="13">
+        <v>93615</v>
       </c>
       <c r="L65" s="13">
         <v>0</v>
       </c>
-      <c r="M65" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>60</v>
+      <c r="M65" s="13">
+        <v>408393</v>
+      </c>
+      <c r="N65" s="13">
+        <v>1046580</v>
       </c>
       <c r="O65" s="13">
         <v>0</v>
@@ -6319,34 +5727,34 @@
       <c r="P65" s="13">
         <v>0</v>
       </c>
-      <c r="Q65" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="R65" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="S65" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="V65" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>67</v>
+      <c r="Q65" s="13">
+        <v>75686</v>
+      </c>
+      <c r="R65" s="13">
+        <v>1158693</v>
+      </c>
+      <c r="S65" s="13">
+        <v>928047</v>
+      </c>
+      <c r="T65" s="13">
+        <v>711563</v>
+      </c>
+      <c r="U65" s="13">
+        <v>121912</v>
+      </c>
+      <c r="V65" s="13">
+        <v>123458</v>
+      </c>
+      <c r="W65" s="13">
+        <v>90293</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>375</v>
+        <v>178</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="C66" s="12">
         <v>1</v>
@@ -6355,35 +5763,35 @@
         <v>7</v>
       </c>
       <c r="E66" s="12">
-        <v>5173562.46</v>
+        <v>5173562</v>
       </c>
       <c r="F66" s="12">
         <v>3100202.63</v>
       </c>
       <c r="G66" s="12">
         <f t="shared" si="2"/>
-        <v>2073359.83</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L66" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M66" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N66" s="13" t="s">
-        <v>73</v>
+        <v>2073359.37</v>
+      </c>
+      <c r="H66" s="13">
+        <v>51945</v>
+      </c>
+      <c r="I66" s="13">
+        <v>6</v>
+      </c>
+      <c r="J66" s="13">
+        <v>28539</v>
+      </c>
+      <c r="K66" s="13">
+        <v>288211</v>
+      </c>
+      <c r="L66" s="13">
+        <v>288211</v>
+      </c>
+      <c r="M66" s="13">
+        <v>79565</v>
+      </c>
+      <c r="N66" s="13">
+        <v>158124</v>
       </c>
       <c r="O66" s="13">
         <v>0</v>
@@ -6391,34 +5799,34 @@
       <c r="P66" s="13">
         <v>0</v>
       </c>
-      <c r="Q66" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R66" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="S66" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="T66" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="V66" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>80</v>
+      <c r="Q66" s="13">
+        <v>278097</v>
+      </c>
+      <c r="R66" s="13">
+        <v>452570</v>
+      </c>
+      <c r="S66" s="13">
+        <v>2087800</v>
+      </c>
+      <c r="T66" s="13">
+        <v>1930018</v>
+      </c>
+      <c r="U66" s="13">
+        <v>37175</v>
+      </c>
+      <c r="V66" s="13">
+        <v>121812</v>
+      </c>
+      <c r="W66" s="13">
+        <v>94176</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>376</v>
+        <v>179</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="C67" s="12">
         <v>4</v>
@@ -6427,70 +5835,70 @@
         <v>17</v>
       </c>
       <c r="E67" s="12">
-        <v>20907737.149999999</v>
+        <v>20907737</v>
       </c>
       <c r="F67" s="12">
         <v>11314403.27</v>
       </c>
       <c r="G67" s="12">
         <f t="shared" si="2"/>
-        <v>9593333.879999999</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>81</v>
+        <v>9593333.7300000004</v>
+      </c>
+      <c r="H67" s="13">
+        <v>2607590</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="O67" s="13" t="s">
-        <v>87</v>
+      <c r="J67" s="13">
+        <v>1953564</v>
+      </c>
+      <c r="K67" s="13">
+        <v>508614</v>
+      </c>
+      <c r="L67" s="13">
+        <v>1970000</v>
+      </c>
+      <c r="M67" s="13">
+        <v>1502303</v>
+      </c>
+      <c r="N67" s="13">
+        <v>1662184</v>
+      </c>
+      <c r="O67" s="13">
+        <v>62900</v>
       </c>
       <c r="P67" s="13">
         <v>0</v>
       </c>
-      <c r="Q67" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="R67" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="S67" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T67" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U67" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="V67" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>94</v>
+      <c r="Q67" s="13">
+        <v>4196424</v>
+      </c>
+      <c r="R67" s="13">
+        <v>6947657</v>
+      </c>
+      <c r="S67" s="13">
+        <v>4117371</v>
+      </c>
+      <c r="T67" s="13">
+        <v>3708324</v>
+      </c>
+      <c r="U67" s="13">
+        <v>199577</v>
+      </c>
+      <c r="V67" s="13">
+        <v>-79938</v>
+      </c>
+      <c r="W67" s="13">
+        <v>-215845</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>377</v>
+        <v>180</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="C68" s="12">
         <v>6</v>
@@ -6499,70 +5907,70 @@
         <v>16</v>
       </c>
       <c r="E68" s="12">
-        <v>21438655.399999999</v>
+        <v>21438655</v>
       </c>
       <c r="F68" s="12">
         <v>15433717.34</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="2"/>
-        <v>6004938.0599999987</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N68" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O68" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P68" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="S68" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="T68" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U68" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="V68" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>109</v>
+        <v>6004937.6600000001</v>
+      </c>
+      <c r="H68" s="13">
+        <v>725863</v>
+      </c>
+      <c r="I68" s="13">
+        <v>2508</v>
+      </c>
+      <c r="J68" s="13">
+        <v>2780048</v>
+      </c>
+      <c r="K68" s="13">
+        <v>7565598</v>
+      </c>
+      <c r="L68" s="13">
+        <v>867575</v>
+      </c>
+      <c r="M68" s="13">
+        <v>2284260</v>
+      </c>
+      <c r="N68" s="13">
+        <v>3703414</v>
+      </c>
+      <c r="O68" s="13">
+        <v>5790262</v>
+      </c>
+      <c r="P68" s="13">
+        <v>747700</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>7088119</v>
+      </c>
+      <c r="R68" s="13">
+        <v>18780480</v>
+      </c>
+      <c r="S68" s="13">
+        <v>9820022</v>
+      </c>
+      <c r="T68" s="13">
+        <v>7905701</v>
+      </c>
+      <c r="U68" s="13">
+        <v>977869</v>
+      </c>
+      <c r="V68" s="13">
+        <v>107962</v>
+      </c>
+      <c r="W68" s="13">
+        <v>107962</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>378</v>
+        <v>181</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="C69" s="12">
         <v>3</v>
@@ -6571,35 +5979,35 @@
         <v>4</v>
       </c>
       <c r="E69" s="12">
-        <v>2572861.06</v>
+        <v>2572861</v>
       </c>
       <c r="F69" s="12">
         <v>1632477.26</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="2"/>
-        <v>940383.8</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>110</v>
+        <v>940383.74</v>
+      </c>
+      <c r="H69" s="13">
+        <v>70582</v>
       </c>
       <c r="I69" s="13">
         <v>0</v>
       </c>
-      <c r="J69" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>112</v>
+      <c r="J69" s="13">
+        <v>342479</v>
+      </c>
+      <c r="K69" s="13">
+        <v>70322</v>
       </c>
       <c r="L69" s="13">
         <v>0</v>
       </c>
-      <c r="M69" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="N69" s="13" t="s">
-        <v>114</v>
+      <c r="M69" s="13">
+        <v>2445</v>
+      </c>
+      <c r="N69" s="13">
+        <v>49172</v>
       </c>
       <c r="O69" s="13">
         <v>0</v>
@@ -6607,34 +6015,34 @@
       <c r="P69" s="13">
         <v>0</v>
       </c>
-      <c r="Q69" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="R69" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="S69" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="T69" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="U69" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="V69" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="W69" s="13" t="s">
-        <v>121</v>
+      <c r="Q69" s="13">
+        <v>410493</v>
+      </c>
+      <c r="R69" s="13">
+        <v>499233</v>
+      </c>
+      <c r="S69" s="13">
+        <v>850820</v>
+      </c>
+      <c r="T69" s="13">
+        <v>653388</v>
+      </c>
+      <c r="U69" s="13">
+        <v>29480</v>
+      </c>
+      <c r="V69" s="13">
+        <v>12311</v>
+      </c>
+      <c r="W69" s="13">
+        <v>7110</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>379</v>
+        <v>182</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="C70" s="12">
         <v>9</v>
@@ -6652,61 +6060,61 @@
         <f t="shared" si="2"/>
         <v>3015020</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>122</v>
+      <c r="H70" s="13">
+        <v>18403</v>
       </c>
       <c r="I70" s="13">
         <v>0</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>124</v>
+      <c r="J70" s="13">
+        <v>791459</v>
+      </c>
+      <c r="K70" s="13">
+        <v>648291</v>
       </c>
       <c r="L70" s="13">
         <v>0</v>
       </c>
-      <c r="M70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N70" s="13" t="s">
-        <v>126</v>
+      <c r="M70" s="13">
+        <v>738152</v>
+      </c>
+      <c r="N70" s="13">
+        <v>324247</v>
       </c>
       <c r="O70" s="13">
         <v>0</v>
       </c>
-      <c r="P70" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q70" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="R70" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="S70" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="T70" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="U70" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="V70" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="W70" s="13" t="s">
-        <v>134</v>
+      <c r="P70" s="13">
+        <v>223713</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>1671597</v>
+      </c>
+      <c r="R70" s="13">
+        <v>2222594</v>
+      </c>
+      <c r="S70" s="13">
+        <v>2216338</v>
+      </c>
+      <c r="T70" s="13">
+        <v>1807859</v>
+      </c>
+      <c r="U70" s="13">
+        <v>338789</v>
+      </c>
+      <c r="V70" s="13">
+        <v>256856</v>
+      </c>
+      <c r="W70" s="13">
+        <v>192597</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="C71" s="12">
         <v>2</v>
@@ -6715,70 +6123,70 @@
         <v>8</v>
       </c>
       <c r="E71" s="12">
-        <v>7144144.9400000004</v>
+        <v>7144144</v>
       </c>
       <c r="F71" s="12">
         <v>3259757.5</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="2"/>
-        <v>3884387.4400000004</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>135</v>
+        <v>3884386.5</v>
+      </c>
+      <c r="H71" s="13">
+        <v>275469</v>
       </c>
       <c r="I71" s="13">
         <v>0</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>137</v>
+      <c r="J71" s="13">
+        <v>250307</v>
+      </c>
+      <c r="K71" s="13">
+        <v>408855</v>
       </c>
       <c r="L71" s="13">
         <v>0</v>
       </c>
-      <c r="M71" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O71" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="P71" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q71" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="R71" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="S71" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="T71" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="U71" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="V71" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>148</v>
+      <c r="M71" s="13">
+        <v>8990</v>
+      </c>
+      <c r="N71" s="13">
+        <v>412982</v>
+      </c>
+      <c r="O71" s="13">
+        <v>61774</v>
+      </c>
+      <c r="P71" s="13">
+        <v>202504</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>128005</v>
+      </c>
+      <c r="R71" s="13">
+        <v>970763</v>
+      </c>
+      <c r="S71" s="13">
+        <v>959668</v>
+      </c>
+      <c r="T71" s="13">
+        <v>565002</v>
+      </c>
+      <c r="U71" s="13">
+        <v>79739</v>
+      </c>
+      <c r="V71" s="13">
+        <v>24464</v>
+      </c>
+      <c r="W71" s="13">
+        <v>10266</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="C72" s="12">
         <v>2</v>
@@ -6787,17 +6195,17 @@
         <v>2</v>
       </c>
       <c r="E72" s="12">
-        <v>1206097.56</v>
+        <v>1206097</v>
       </c>
       <c r="F72" s="12">
         <v>815524</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="2"/>
-        <v>390573.56000000006</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>149</v>
+        <v>390573</v>
+      </c>
+      <c r="H72" s="13">
+        <v>583</v>
       </c>
       <c r="I72" s="13">
         <v>0</v>
@@ -6805,52 +6213,52 @@
       <c r="J72" s="13">
         <v>0</v>
       </c>
-      <c r="K72" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="P72" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q72" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="R72" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="V72" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>162</v>
+      <c r="K72" s="13">
+        <v>142592</v>
+      </c>
+      <c r="L72" s="13">
+        <v>15460</v>
+      </c>
+      <c r="M72" s="13">
+        <v>156668</v>
+      </c>
+      <c r="N72" s="13">
+        <v>132917</v>
+      </c>
+      <c r="O72" s="13">
+        <v>27800</v>
+      </c>
+      <c r="P72" s="13">
+        <v>1660</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>293003</v>
+      </c>
+      <c r="R72" s="13">
+        <v>457821</v>
+      </c>
+      <c r="S72" s="13">
+        <v>1727360</v>
+      </c>
+      <c r="T72" s="13">
+        <v>1700163</v>
+      </c>
+      <c r="U72" s="13">
+        <v>14352</v>
+      </c>
+      <c r="V72" s="13">
+        <v>23108</v>
+      </c>
+      <c r="W72" s="13">
+        <v>18289</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="C73" s="12">
         <v>4</v>
@@ -6859,70 +6267,70 @@
         <v>4</v>
       </c>
       <c r="E73" s="12">
-        <v>5975569.5999999996</v>
+        <v>5975569</v>
       </c>
       <c r="F73" s="12">
         <v>2506422.61</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="2"/>
-        <v>3469146.9899999998</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>166</v>
+        <v>3469146.39</v>
+      </c>
+      <c r="H73" s="13">
+        <v>153021</v>
+      </c>
+      <c r="I73" s="13">
+        <v>356260</v>
+      </c>
+      <c r="J73" s="13">
+        <v>832239</v>
+      </c>
+      <c r="K73" s="13">
+        <v>1883373</v>
       </c>
       <c r="L73" s="13">
         <v>0</v>
       </c>
-      <c r="M73" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="N73" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="O73" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="P73" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R73" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="S73" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="V73" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>177</v>
+      <c r="M73" s="13">
+        <v>42872</v>
+      </c>
+      <c r="N73" s="13">
+        <v>377319</v>
+      </c>
+      <c r="O73" s="13">
+        <v>634159</v>
+      </c>
+      <c r="P73" s="13">
+        <v>566321</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>1780284</v>
+      </c>
+      <c r="R73" s="13">
+        <v>3358083</v>
+      </c>
+      <c r="S73" s="13">
+        <v>1125459</v>
+      </c>
+      <c r="T73" s="13">
+        <v>957888</v>
+      </c>
+      <c r="U73" s="13">
+        <v>167571</v>
+      </c>
+      <c r="V73" s="13">
+        <v>12497</v>
+      </c>
+      <c r="W73" s="13">
+        <v>9998</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>383</v>
+        <v>186</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="C74" s="12">
         <v>3</v>
@@ -6940,8 +6348,8 @@
         <f t="shared" si="2"/>
         <v>249790</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>192</v>
+      <c r="H74" s="13">
+        <v>142852</v>
       </c>
       <c r="I74" s="13">
         <v>0</v>
@@ -6949,8 +6357,8 @@
       <c r="J74" s="13">
         <v>74414</v>
       </c>
-      <c r="K74" s="13" t="s">
-        <v>193</v>
+      <c r="K74" s="13">
+        <v>171340</v>
       </c>
       <c r="L74" s="13">
         <v>0</v>
@@ -6958,32 +6366,32 @@
       <c r="M74" s="13">
         <v>185</v>
       </c>
-      <c r="N74" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O74" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q74" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="R74" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="S74" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="T74" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="U74" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="V74" s="13" t="s">
-        <v>202</v>
+      <c r="N74" s="13">
+        <v>23644</v>
+      </c>
+      <c r="O74" s="13">
+        <v>21600</v>
+      </c>
+      <c r="P74" s="13">
+        <v>20204</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>216380</v>
+      </c>
+      <c r="R74" s="13">
+        <v>396111</v>
+      </c>
+      <c r="S74" s="13">
+        <v>1620418</v>
+      </c>
+      <c r="T74" s="13">
+        <v>1534321</v>
+      </c>
+      <c r="U74" s="13">
+        <v>32423</v>
+      </c>
+      <c r="V74" s="13">
+        <v>1114</v>
       </c>
       <c r="W74" s="13">
         <v>366</v>
@@ -6991,10 +6399,10 @@
     </row>
     <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>384</v>
+        <v>187</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="C75" s="12">
         <v>2</v>
@@ -7003,14 +6411,14 @@
         <v>16</v>
       </c>
       <c r="E75" s="12">
-        <v>706625.7</v>
+        <v>706625</v>
       </c>
       <c r="F75" s="12">
         <v>55210.74</v>
       </c>
       <c r="G75" s="12">
         <f t="shared" si="2"/>
-        <v>651414.96</v>
+        <v>651414.26</v>
       </c>
       <c r="H75" s="13">
         <v>29752</v>
@@ -7063,10 +6471,10 @@
     </row>
     <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="C76" s="12">
         <v>2</v>
@@ -7075,35 +6483,35 @@
         <v>3</v>
       </c>
       <c r="E76" s="12">
-        <v>1113223.25</v>
+        <v>1113223</v>
       </c>
       <c r="F76" s="12">
         <v>800061.26</v>
       </c>
       <c r="G76" s="12">
         <f t="shared" si="2"/>
-        <v>313161.99</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>203</v>
+        <v>313161.74</v>
+      </c>
+      <c r="H76" s="13">
+        <v>18571</v>
       </c>
       <c r="I76" s="13">
         <v>0</v>
       </c>
-      <c r="J76" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>205</v>
+      <c r="J76" s="13">
+        <v>32818</v>
+      </c>
+      <c r="K76" s="13">
+        <v>9784</v>
       </c>
       <c r="L76" s="13">
         <v>0</v>
       </c>
-      <c r="M76" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>207</v>
+      <c r="M76" s="13">
+        <v>57544</v>
+      </c>
+      <c r="N76" s="13">
+        <v>82765</v>
       </c>
       <c r="O76" s="13">
         <v>0</v>
@@ -7111,34 +6519,34 @@
       <c r="P76" s="13">
         <v>0</v>
       </c>
-      <c r="Q76" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="R76" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="S76" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="T76" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="U76" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="V76" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>214</v>
+      <c r="Q76" s="13">
+        <v>23354</v>
+      </c>
+      <c r="R76" s="13">
+        <v>122039</v>
+      </c>
+      <c r="S76" s="13">
+        <v>462417</v>
+      </c>
+      <c r="T76" s="13">
+        <v>402520</v>
+      </c>
+      <c r="U76" s="13">
+        <v>18722</v>
+      </c>
+      <c r="V76" s="13">
+        <v>9428</v>
+      </c>
+      <c r="W76" s="13">
+        <v>5582</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="C77" s="12">
         <v>5</v>
@@ -7147,14 +6555,14 @@
         <v>33</v>
       </c>
       <c r="E77" s="12">
-        <v>10210561.34</v>
+        <v>10210561</v>
       </c>
       <c r="F77" s="12">
         <v>5169737.21</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="2"/>
-        <v>5040824.13</v>
+        <v>5040823.79</v>
       </c>
       <c r="H77" s="13">
         <v>247745</v>
@@ -7207,10 +6615,10 @@
     </row>
     <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="C78" s="12">
         <v>3</v>
@@ -7279,10 +6687,10 @@
     </row>
     <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>388</v>
+        <v>191</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="C79" s="12">
         <v>2</v>
@@ -7291,14 +6699,14 @@
         <v>3</v>
       </c>
       <c r="E79" s="12">
-        <v>1649905.66</v>
+        <v>1649905</v>
       </c>
       <c r="F79" s="12">
         <v>345628</v>
       </c>
       <c r="G79" s="12">
         <f t="shared" si="2"/>
-        <v>1304277.6599999999</v>
+        <v>1304277</v>
       </c>
       <c r="H79" s="13">
         <v>64919</v>
@@ -7351,10 +6759,10 @@
     </row>
     <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>389</v>
+        <v>192</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="C80" s="12">
         <v>9</v>
@@ -7363,14 +6771,14 @@
         <v>9</v>
       </c>
       <c r="E80" s="12">
-        <v>28983131.390000001</v>
+        <v>28983131</v>
       </c>
       <c r="F80" s="12">
         <v>13885879.029999999</v>
       </c>
       <c r="G80" s="12">
         <f t="shared" si="2"/>
-        <v>15097252.360000001</v>
+        <v>15097251.970000001</v>
       </c>
       <c r="H80" s="13">
         <v>145671</v>
@@ -7423,10 +6831,10 @@
     </row>
     <row r="81" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>390</v>
+        <v>193</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="C81" s="12">
         <v>3</v>
@@ -7495,10 +6903,10 @@
     </row>
     <row r="82" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>391</v>
+        <v>194</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="C82" s="12">
         <v>14</v>
@@ -7507,14 +6915,14 @@
         <v>22</v>
       </c>
       <c r="E82" s="12">
-        <v>1481413.86</v>
+        <v>1481413</v>
       </c>
       <c r="F82" s="12">
         <v>284000.09999999998</v>
       </c>
       <c r="G82" s="12">
         <f t="shared" si="2"/>
-        <v>1197413.7600000002</v>
+        <v>1197412.8999999999</v>
       </c>
       <c r="H82" s="13">
         <v>12146</v>
@@ -7567,10 +6975,10 @@
     </row>
     <row r="83" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="C83" s="12">
         <v>2</v>
@@ -7639,10 +7047,10 @@
     </row>
     <row r="84" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>393</v>
+        <v>196</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="C84" s="12">
         <v>20</v>
@@ -7711,10 +7119,10 @@
     </row>
     <row r="85" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="C85" s="12">
         <v>1</v>
@@ -7723,14 +7131,14 @@
         <v>1</v>
       </c>
       <c r="E85" s="12">
-        <v>21677889.600000001</v>
+        <v>21677889</v>
       </c>
       <c r="F85" s="12">
         <v>13023597</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="2"/>
-        <v>8654292.6000000015</v>
+        <v>8654292</v>
       </c>
       <c r="H85" s="13">
         <v>993845</v>
@@ -7783,10 +7191,10 @@
     </row>
     <row r="86" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="C86" s="12">
         <v>3</v>
@@ -7795,14 +7203,14 @@
         <v>3</v>
       </c>
       <c r="E86" s="12">
-        <v>644335.31999999995</v>
+        <v>644335</v>
       </c>
       <c r="F86" s="12">
         <v>229774.55</v>
       </c>
       <c r="G86" s="12">
         <f t="shared" si="2"/>
-        <v>414560.76999999996</v>
+        <v>414560.45</v>
       </c>
       <c r="H86" s="13">
         <v>7897</v>
@@ -7855,10 +7263,10 @@
     </row>
     <row r="87" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>396</v>
+        <v>199</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="C87" s="12">
         <v>7</v>
@@ -7927,10 +7335,10 @@
     </row>
     <row r="88" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>397</v>
+        <v>200</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="C88" s="12">
         <v>1</v>
@@ -7939,14 +7347,14 @@
         <v>2</v>
       </c>
       <c r="E88" s="12">
-        <v>24512414.530000001</v>
+        <v>24512414</v>
       </c>
       <c r="F88" s="12">
         <v>21916587</v>
       </c>
       <c r="G88" s="12">
         <f t="shared" si="2"/>
-        <v>2595827.5300000012</v>
+        <v>2595827</v>
       </c>
       <c r="H88" s="13">
         <v>1826087</v>
@@ -7999,10 +7407,10 @@
     </row>
     <row r="89" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="C89" s="12">
         <v>4</v>
@@ -8011,14 +7419,14 @@
         <v>395</v>
       </c>
       <c r="E89" s="12">
-        <v>10173879.960000001</v>
+        <v>10173879</v>
       </c>
       <c r="F89" s="12">
         <v>8449963.9299999997</v>
       </c>
       <c r="G89" s="12">
         <f t="shared" si="2"/>
-        <v>1723916.0300000012</v>
+        <v>1723915.0700000003</v>
       </c>
       <c r="H89" s="13">
         <v>12724</v>
@@ -8071,10 +7479,10 @@
     </row>
     <row r="90" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>399</v>
+        <v>202</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="C90" s="12">
         <v>1</v>
@@ -8083,14 +7491,14 @@
         <v>22</v>
       </c>
       <c r="E90" s="12">
-        <v>15144433.390000001</v>
+        <v>15144433</v>
       </c>
       <c r="F90" s="12">
         <v>11648225.67</v>
       </c>
       <c r="G90" s="12">
         <f t="shared" si="2"/>
-        <v>3496207.7200000007</v>
+        <v>3496207.33</v>
       </c>
       <c r="H90" s="13">
         <v>62817</v>
@@ -8143,10 +7551,10 @@
     </row>
     <row r="91" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="C91" s="12">
         <v>17</v>
@@ -8155,14 +7563,14 @@
         <v>21</v>
       </c>
       <c r="E91" s="12">
-        <v>4013227.2</v>
+        <v>4013227</v>
       </c>
       <c r="F91" s="12">
         <v>1696900.32</v>
       </c>
       <c r="G91" s="12">
         <f t="shared" si="2"/>
-        <v>2316326.88</v>
+        <v>2316326.6799999997</v>
       </c>
       <c r="H91" s="13">
         <v>44627</v>
@@ -8215,10 +7623,10 @@
     </row>
     <row r="92" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>401</v>
+        <v>204</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="C92" s="12">
         <v>6</v>
@@ -8227,14 +7635,14 @@
         <v>7</v>
       </c>
       <c r="E92" s="12">
-        <v>5183801.58</v>
+        <v>5183801</v>
       </c>
       <c r="F92" s="12">
         <v>3202647.68</v>
       </c>
       <c r="G92" s="12">
         <f t="shared" si="2"/>
-        <v>1981153.9</v>
+        <v>1981153.3199999998</v>
       </c>
       <c r="H92" s="13">
         <v>275991</v>
@@ -8287,10 +7695,10 @@
     </row>
     <row r="93" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>402</v>
+        <v>205</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="C93" s="12">
         <v>4</v>
@@ -8299,14 +7707,14 @@
         <v>31</v>
       </c>
       <c r="E93" s="12">
-        <v>68431441.409999996</v>
+        <v>68431441</v>
       </c>
       <c r="F93" s="12">
         <v>15097789.48</v>
       </c>
       <c r="G93" s="12">
         <f t="shared" si="2"/>
-        <v>53333651.929999992</v>
+        <v>53333651.519999996</v>
       </c>
       <c r="H93" s="13">
         <v>339597</v>
@@ -8359,10 +7767,10 @@
     </row>
     <row r="94" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>403</v>
+        <v>206</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="C94" s="12">
         <v>7</v>
@@ -8371,14 +7779,14 @@
         <v>12</v>
       </c>
       <c r="E94" s="12">
-        <v>2707860.86</v>
+        <v>2707860</v>
       </c>
       <c r="F94" s="12">
         <v>859880.23</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="2"/>
-        <v>1847980.63</v>
+        <v>1847979.77</v>
       </c>
       <c r="H94" s="13">
         <v>11143</v>
@@ -8431,10 +7839,10 @@
     </row>
     <row r="95" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>404</v>
+        <v>207</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="C95" s="12">
         <v>5</v>
@@ -8443,14 +7851,14 @@
         <v>7</v>
       </c>
       <c r="E95" s="12">
-        <v>30807297.800000001</v>
+        <v>30807297</v>
       </c>
       <c r="F95" s="12">
         <v>11060718.300000001</v>
       </c>
       <c r="G95" s="12">
         <f t="shared" si="2"/>
-        <v>19746579.5</v>
+        <v>19746578.699999999</v>
       </c>
       <c r="H95" s="13">
         <v>283159</v>
@@ -8503,10 +7911,10 @@
     </row>
     <row r="96" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="C96" s="12">
         <v>5</v>
@@ -8515,14 +7923,14 @@
         <v>10</v>
       </c>
       <c r="E96" s="12">
-        <v>20578057.800000001</v>
+        <v>20578057</v>
       </c>
       <c r="F96" s="12">
         <v>13079076.93</v>
       </c>
       <c r="G96" s="12">
         <f t="shared" si="2"/>
-        <v>7498980.870000001</v>
+        <v>7498980.0700000003</v>
       </c>
       <c r="H96" s="13">
         <v>124826</v>
@@ -8575,10 +7983,10 @@
     </row>
     <row r="97" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>406</v>
+        <v>209</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="C97" s="12">
         <v>2</v>
@@ -8587,14 +7995,14 @@
         <v>3</v>
       </c>
       <c r="E97" s="12">
-        <v>1734365.27</v>
+        <v>1734365</v>
       </c>
       <c r="F97" s="12">
         <v>588421.25</v>
       </c>
       <c r="G97" s="12">
         <f t="shared" si="2"/>
-        <v>1145944.02</v>
+        <v>1145943.75</v>
       </c>
       <c r="H97" s="13">
         <v>44181</v>
@@ -8647,10 +8055,10 @@
     </row>
     <row r="98" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>407</v>
+        <v>210</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="C98" s="12">
         <v>6</v>
@@ -8659,14 +8067,14 @@
         <v>56</v>
       </c>
       <c r="E98" s="12">
-        <v>1382696.48</v>
+        <v>1382696</v>
       </c>
       <c r="F98" s="12">
         <v>579391.56999999995</v>
       </c>
       <c r="G98" s="12">
         <f t="shared" si="2"/>
-        <v>803304.91</v>
+        <v>803304.43</v>
       </c>
       <c r="H98" s="13">
         <v>48579</v>
@@ -8719,10 +8127,10 @@
     </row>
     <row r="99" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>408</v>
+        <v>211</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="C99" s="12">
         <v>8</v>
@@ -8731,14 +8139,14 @@
         <v>15</v>
       </c>
       <c r="E99" s="12">
-        <v>15031837.949999999</v>
+        <v>15031837</v>
       </c>
       <c r="F99" s="12">
         <v>4688663.34</v>
       </c>
       <c r="G99" s="12">
         <f t="shared" si="2"/>
-        <v>10343174.609999999</v>
+        <v>10343173.66</v>
       </c>
       <c r="H99" s="13">
         <v>2887250</v>
@@ -8791,10 +8199,10 @@
     </row>
     <row r="100" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>409</v>
+        <v>212</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="C100" s="12">
         <v>4</v>
@@ -8803,14 +8211,14 @@
         <v>29</v>
       </c>
       <c r="E100" s="12">
-        <v>4940478.62</v>
+        <v>4940478</v>
       </c>
       <c r="F100" s="12">
         <v>3332102.02</v>
       </c>
       <c r="G100" s="12">
         <f t="shared" si="2"/>
-        <v>1608376.6</v>
+        <v>1608375.98</v>
       </c>
       <c r="H100" s="13">
         <v>188950</v>
@@ -8863,10 +8271,10 @@
     </row>
     <row r="101" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>410</v>
+        <v>213</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C101" s="8">
         <v>6</v>
@@ -8875,14 +8283,14 @@
         <v>11</v>
       </c>
       <c r="E101" s="12">
-        <v>867100.78</v>
+        <v>867100</v>
       </c>
       <c r="F101" s="12">
         <v>140351.09</v>
       </c>
       <c r="G101" s="12">
         <f t="shared" si="2"/>
-        <v>726749.69000000006</v>
+        <v>726748.91</v>
       </c>
       <c r="H101" s="13">
         <v>718</v>

--- a/data_set_cleared.xlsx
+++ b/data_set_cleared.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE5B17-646B-7845-8461-4A6B4EF6A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C059E-FCB4-8B43-902E-25331A5071B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1184,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A2:W902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="H33" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5307,9 +5307,15 @@
       <c r="R59" s="13">
         <v>2175114</v>
       </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
+      <c r="S59" s="13">
+        <v>0</v>
+      </c>
+      <c r="T59" s="13">
+        <v>0</v>
+      </c>
+      <c r="U59" s="13">
+        <v>0</v>
+      </c>
       <c r="V59" s="13">
         <v>339464</v>
       </c>

--- a/data_set_cleared.xlsx
+++ b/data_set_cleared.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C059E-FCB4-8B43-902E-25331A5071B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31FC44-1D64-1745-90B0-2DB0A65D9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A2:W902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,11 +1665,11 @@
         <v>30537299</v>
       </c>
       <c r="F9" s="12">
-        <v>23299873.329999998</v>
+        <v>23299873</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>7237425.6700000018</v>
+        <v>7237426</v>
       </c>
       <c r="H9" s="13">
         <v>409564</v>
@@ -1809,11 +1809,11 @@
         <v>75132904</v>
       </c>
       <c r="F11" s="12">
-        <v>45426186.590000004</v>
+        <v>45426186</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>29706717.409999996</v>
+        <v>29706718</v>
       </c>
       <c r="H11" s="13">
         <v>1783995</v>
@@ -1881,11 +1881,11 @@
         <v>2727195</v>
       </c>
       <c r="F12" s="12">
-        <v>1655262.27</v>
+        <v>1655262</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>1071932.73</v>
+        <v>1071933</v>
       </c>
       <c r="H12" s="13">
         <v>392116</v>
@@ -1953,11 +1953,11 @@
         <v>10135453</v>
       </c>
       <c r="F13" s="12">
-        <v>3005687.86</v>
+        <v>3005687</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>7129765.1400000006</v>
+        <v>7129766</v>
       </c>
       <c r="H13" s="13">
         <v>1548003</v>
@@ -2025,12 +2025,11 @@
         <v>290562360</v>
       </c>
       <c r="F14" s="12">
-        <f>114926047.36+52445.25</f>
-        <v>114978492.61</v>
+        <v>114978493</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>175583867.38999999</v>
+        <v>175583867</v>
       </c>
       <c r="H14" s="13">
         <v>4899525</v>
@@ -2098,12 +2097,11 @@
         <v>3721623</v>
       </c>
       <c r="F15" s="12">
-        <f>2036399.97+425000</f>
-        <v>2461399.9699999997</v>
+        <v>2461400</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>1260223.0300000003</v>
+        <v>1260223</v>
       </c>
       <c r="H15" s="13">
         <v>750493</v>
@@ -2171,11 +2169,11 @@
         <v>3772691</v>
       </c>
       <c r="F16" s="12">
-        <v>2019474.52</v>
+        <v>2019474</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G19" si="1">E16-F16</f>
-        <v>1753216.48</v>
+        <v>1753217</v>
       </c>
       <c r="H16" s="13">
         <v>40226</v>
@@ -2243,11 +2241,11 @@
         <v>47613534</v>
       </c>
       <c r="F17" s="12">
-        <v>23426473.870000001</v>
+        <v>23426473</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>24187060.129999999</v>
+        <v>24187061</v>
       </c>
       <c r="H17" s="13">
         <v>607880</v>
@@ -2315,11 +2313,11 @@
         <v>14347776</v>
       </c>
       <c r="F18" s="12">
-        <v>8150688.5</v>
+        <v>8150688</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>6197087.5</v>
+        <v>6197088</v>
       </c>
       <c r="H18" s="13">
         <v>84553</v>
@@ -2387,11 +2385,11 @@
         <v>3903067</v>
       </c>
       <c r="F19" s="12">
-        <v>2654829.39</v>
+        <v>2654829</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>1248237.6099999999</v>
+        <v>1248238</v>
       </c>
       <c r="H19" s="13">
         <v>276577</v>
@@ -2459,12 +2457,11 @@
         <v>20549971</v>
       </c>
       <c r="F20" s="12">
-        <f>13885204.93</f>
-        <v>13885204.93</v>
+        <v>13885204</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" ref="G20:G101" si="2">E20-F20</f>
-        <v>6664766.0700000003</v>
+        <v>6664767</v>
       </c>
       <c r="H20" s="13">
         <v>282087</v>
@@ -2532,11 +2529,11 @@
         <v>6868946</v>
       </c>
       <c r="F21" s="12">
-        <v>3477100.19</v>
+        <v>3477100</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>3391845.81</v>
+        <v>3391846</v>
       </c>
       <c r="H21" s="13">
         <v>457690</v>
@@ -2676,11 +2673,11 @@
         <v>16052878</v>
       </c>
       <c r="F23" s="12">
-        <v>7374563.9699999997</v>
+        <v>7374563</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>8678314.0300000012</v>
+        <v>8678315</v>
       </c>
       <c r="H23" s="13">
         <v>170755</v>
@@ -2748,11 +2745,11 @@
         <v>35320722</v>
       </c>
       <c r="F24" s="12">
-        <v>9199104.6600000001</v>
+        <v>9199104</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>26121617.34</v>
+        <v>26121618</v>
       </c>
       <c r="H24" s="13">
         <v>337924</v>
@@ -2820,11 +2817,11 @@
         <v>1725373</v>
       </c>
       <c r="F25" s="12">
-        <v>737710.87</v>
+        <v>737710</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="2"/>
-        <v>987662.13</v>
+        <v>987663</v>
       </c>
       <c r="H25" s="13">
         <v>110244</v>
@@ -2892,11 +2889,11 @@
         <v>6636783</v>
       </c>
       <c r="F26" s="12">
-        <v>1347310.21</v>
+        <v>1347310</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="2"/>
-        <v>5289472.79</v>
+        <v>5289473</v>
       </c>
       <c r="H26" s="13">
         <v>225433</v>
@@ -2964,11 +2961,11 @@
         <v>5938334</v>
       </c>
       <c r="F27" s="12">
-        <v>4436478.29</v>
+        <v>4436478</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="2"/>
-        <v>1501855.71</v>
+        <v>1501856</v>
       </c>
       <c r="H27" s="13">
         <v>8882</v>
@@ -3036,11 +3033,11 @@
         <v>4171717</v>
       </c>
       <c r="F28" s="12">
-        <v>1796683.11</v>
+        <v>1796683</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="2"/>
-        <v>2375033.8899999997</v>
+        <v>2375034</v>
       </c>
       <c r="H28" s="13">
         <v>27732</v>
@@ -3108,11 +3105,11 @@
         <v>584865</v>
       </c>
       <c r="F29" s="12">
-        <v>277383.99</v>
+        <v>277383</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="2"/>
-        <v>307481.01</v>
+        <v>307482</v>
       </c>
       <c r="H29" s="13">
         <v>369</v>
@@ -3180,11 +3177,11 @@
         <v>24243770</v>
       </c>
       <c r="F30" s="12">
-        <v>5663512.8700000001</v>
+        <v>5663512</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="2"/>
-        <v>18580257.129999999</v>
+        <v>18580258</v>
       </c>
       <c r="H30" s="13">
         <v>536063</v>
@@ -3252,11 +3249,11 @@
         <v>5821963</v>
       </c>
       <c r="F31" s="12">
-        <v>1748952.99</v>
+        <v>1748952</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="2"/>
-        <v>4073010.01</v>
+        <v>4073011</v>
       </c>
       <c r="H31" s="13">
         <v>613421</v>
@@ -3324,11 +3321,11 @@
         <v>2059732</v>
       </c>
       <c r="F32" s="12">
-        <v>678097.05</v>
+        <v>678097</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="2"/>
-        <v>1381634.95</v>
+        <v>1381635</v>
       </c>
       <c r="H32" s="13">
         <v>168731</v>
@@ -3396,11 +3393,11 @@
         <v>106770732</v>
       </c>
       <c r="F33" s="12">
-        <v>68143208.200000003</v>
+        <v>68143208</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>38627523.799999997</v>
+        <v>38627524</v>
       </c>
       <c r="H33" s="13">
         <v>2708083</v>
@@ -3468,11 +3465,11 @@
         <v>244865</v>
       </c>
       <c r="F34" s="12">
-        <v>244865.18</v>
+        <v>244865</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="2"/>
-        <v>-0.17999999999301508</v>
+        <v>0</v>
       </c>
       <c r="H34" s="13">
         <v>284980</v>
@@ -3540,11 +3537,11 @@
         <v>804065</v>
       </c>
       <c r="F35" s="12">
-        <v>286478.34000000003</v>
+        <v>286478</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="2"/>
-        <v>517586.66</v>
+        <v>517587</v>
       </c>
       <c r="H35" s="13">
         <v>4945</v>
@@ -3612,11 +3609,11 @@
         <v>55075887</v>
       </c>
       <c r="F36" s="12">
-        <v>10688033.390000001</v>
+        <v>10688033</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="2"/>
-        <v>44387853.609999999</v>
+        <v>44387854</v>
       </c>
       <c r="H36" s="13">
         <v>62867</v>
@@ -3684,11 +3681,11 @@
         <v>58390914</v>
       </c>
       <c r="F37" s="12">
-        <v>23236491.600000001</v>
+        <v>23236491</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="2"/>
-        <v>35154422.399999999</v>
+        <v>35154423</v>
       </c>
       <c r="H37" s="13">
         <v>2284252</v>
@@ -3756,11 +3753,11 @@
         <v>28770779</v>
       </c>
       <c r="F38" s="12">
-        <v>16574624.59</v>
+        <v>16574624</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="2"/>
-        <v>12196154.41</v>
+        <v>12196155</v>
       </c>
       <c r="H38" s="13">
         <v>3441657</v>
@@ -3900,11 +3897,11 @@
         <v>1019238</v>
       </c>
       <c r="F40" s="12">
-        <v>884311.77</v>
+        <v>884311</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="2"/>
-        <v>134926.22999999998</v>
+        <v>134927</v>
       </c>
       <c r="H40" s="13">
         <v>346808</v>
@@ -3972,11 +3969,11 @@
         <v>71628967</v>
       </c>
       <c r="F41" s="12">
-        <v>30977810.940000001</v>
+        <v>30977810</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="2"/>
-        <v>40651156.060000002</v>
+        <v>40651157</v>
       </c>
       <c r="H41" s="13">
         <v>738669</v>
@@ -4044,11 +4041,11 @@
         <v>896311</v>
       </c>
       <c r="F42" s="12">
-        <v>646179.82999999996</v>
+        <v>646179</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="2"/>
-        <v>250131.17000000004</v>
+        <v>250132</v>
       </c>
       <c r="H42" s="13">
         <v>13941</v>
@@ -4260,11 +4257,11 @@
         <v>33756659</v>
       </c>
       <c r="F45" s="12">
-        <v>5950814.3499999996</v>
+        <v>5950814</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="2"/>
-        <v>27805844.649999999</v>
+        <v>27805845</v>
       </c>
       <c r="H45" s="13">
         <v>1571906</v>
@@ -4404,11 +4401,11 @@
         <v>8023428</v>
       </c>
       <c r="F47" s="12">
-        <v>1442351.32</v>
+        <v>1442351</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="2"/>
-        <v>6581076.6799999997</v>
+        <v>6581077</v>
       </c>
       <c r="H47" s="13">
         <v>76655</v>
@@ -4476,11 +4473,11 @@
         <v>52522466</v>
       </c>
       <c r="F48" s="12">
-        <v>17138197.989999998</v>
+        <v>17138197</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="2"/>
-        <v>35384268.010000005</v>
+        <v>35384269</v>
       </c>
       <c r="H48" s="13">
         <v>165203</v>
@@ -4620,11 +4617,11 @@
         <v>3894274</v>
       </c>
       <c r="F50" s="12">
-        <v>2920199.18</v>
+        <v>2920199</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="2"/>
-        <v>974074.81999999983</v>
+        <v>974075</v>
       </c>
       <c r="H50" s="13">
         <v>194070</v>
@@ -4692,11 +4689,11 @@
         <v>361833580</v>
       </c>
       <c r="F51" s="12">
-        <v>147955122.19999999</v>
+        <v>147955122</v>
       </c>
       <c r="G51" s="12">
         <f t="shared" si="2"/>
-        <v>213878457.80000001</v>
+        <v>213878458</v>
       </c>
       <c r="H51" s="13">
         <v>7175167</v>
@@ -4764,11 +4761,11 @@
         <v>545446</v>
       </c>
       <c r="F52" s="12">
-        <v>521189.2</v>
+        <v>521189</v>
       </c>
       <c r="G52" s="12">
         <f t="shared" si="2"/>
-        <v>24256.799999999988</v>
+        <v>24257</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -4836,11 +4833,11 @@
         <v>53256951</v>
       </c>
       <c r="F53" s="12">
-        <v>29751083.780000001</v>
+        <v>29751083</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="2"/>
-        <v>23505867.219999999</v>
+        <v>23505868</v>
       </c>
       <c r="H53" s="13">
         <v>1688354</v>
@@ -4908,11 +4905,11 @@
         <v>40774780</v>
       </c>
       <c r="F54" s="12">
-        <v>21683050.649999999</v>
+        <v>21683050</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="2"/>
-        <v>19091729.350000001</v>
+        <v>19091730</v>
       </c>
       <c r="H54" s="13">
         <v>98987</v>
@@ -4980,11 +4977,11 @@
         <v>9333186</v>
       </c>
       <c r="F55" s="12">
-        <v>6369037.0999999996</v>
+        <v>6369037</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="2"/>
-        <v>2964148.9000000004</v>
+        <v>2964149</v>
       </c>
       <c r="H55" s="13">
         <v>37722</v>
@@ -5052,11 +5049,11 @@
         <v>9801602</v>
       </c>
       <c r="F56" s="12">
-        <v>4509259.45</v>
+        <v>4509259</v>
       </c>
       <c r="G56" s="12">
         <f t="shared" si="2"/>
-        <v>5292342.55</v>
+        <v>5292343</v>
       </c>
       <c r="H56" s="13">
         <v>144816</v>
@@ -5124,11 +5121,11 @@
         <v>6487267</v>
       </c>
       <c r="F57" s="12">
-        <v>5850497.9199999999</v>
+        <v>5850497</v>
       </c>
       <c r="G57" s="12">
         <f t="shared" si="2"/>
-        <v>636769.08000000007</v>
+        <v>636770</v>
       </c>
       <c r="H57" s="13">
         <v>79413</v>
@@ -5268,11 +5265,11 @@
         <v>3893303</v>
       </c>
       <c r="F59" s="12">
-        <v>2939910.27</v>
+        <v>2939910</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="2"/>
-        <v>953392.73</v>
+        <v>953393</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
@@ -5412,11 +5409,11 @@
         <v>9461645</v>
       </c>
       <c r="F61" s="12">
-        <v>7032582.1799999997</v>
+        <v>7032582</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="2"/>
-        <v>2429062.8200000003</v>
+        <v>2429063</v>
       </c>
       <c r="H61" s="13">
         <v>262671</v>
@@ -5484,11 +5481,11 @@
         <v>684495</v>
       </c>
       <c r="F62" s="12">
-        <v>206384.76</v>
+        <v>206384</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="2"/>
-        <v>478110.24</v>
+        <v>478111</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -5556,11 +5553,11 @@
         <v>50126648</v>
       </c>
       <c r="F63" s="12">
-        <v>16813814.100000001</v>
+        <v>16813814</v>
       </c>
       <c r="G63" s="12">
         <f t="shared" si="2"/>
-        <v>33312833.899999999</v>
+        <v>33312834</v>
       </c>
       <c r="H63" s="13">
         <v>439714</v>
@@ -5772,11 +5769,11 @@
         <v>5173562</v>
       </c>
       <c r="F66" s="12">
-        <v>3100202.63</v>
+        <v>3100202</v>
       </c>
       <c r="G66" s="12">
         <f t="shared" si="2"/>
-        <v>2073359.37</v>
+        <v>2073360</v>
       </c>
       <c r="H66" s="13">
         <v>51945</v>
@@ -5844,11 +5841,11 @@
         <v>20907737</v>
       </c>
       <c r="F67" s="12">
-        <v>11314403.27</v>
+        <v>11314403</v>
       </c>
       <c r="G67" s="12">
         <f t="shared" si="2"/>
-        <v>9593333.7300000004</v>
+        <v>9593334</v>
       </c>
       <c r="H67" s="13">
         <v>2607590</v>
@@ -5916,11 +5913,11 @@
         <v>21438655</v>
       </c>
       <c r="F68" s="12">
-        <v>15433717.34</v>
+        <v>15433717</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="2"/>
-        <v>6004937.6600000001</v>
+        <v>6004938</v>
       </c>
       <c r="H68" s="13">
         <v>725863</v>
@@ -5988,11 +5985,11 @@
         <v>2572861</v>
       </c>
       <c r="F69" s="12">
-        <v>1632477.26</v>
+        <v>1632477</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="2"/>
-        <v>940383.74</v>
+        <v>940384</v>
       </c>
       <c r="H69" s="13">
         <v>70582</v>
@@ -6132,11 +6129,11 @@
         <v>7144144</v>
       </c>
       <c r="F71" s="12">
-        <v>3259757.5</v>
+        <v>3259757</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="2"/>
-        <v>3884386.5</v>
+        <v>3884387</v>
       </c>
       <c r="H71" s="13">
         <v>275469</v>
@@ -6276,11 +6273,11 @@
         <v>5975569</v>
       </c>
       <c r="F73" s="12">
-        <v>2506422.61</v>
+        <v>2506422</v>
       </c>
       <c r="G73" s="12">
         <f t="shared" si="2"/>
-        <v>3469146.39</v>
+        <v>3469147</v>
       </c>
       <c r="H73" s="13">
         <v>153021</v>
@@ -6420,11 +6417,11 @@
         <v>706625</v>
       </c>
       <c r="F75" s="12">
-        <v>55210.74</v>
+        <v>55210</v>
       </c>
       <c r="G75" s="12">
         <f t="shared" si="2"/>
-        <v>651414.26</v>
+        <v>651415</v>
       </c>
       <c r="H75" s="13">
         <v>29752</v>
@@ -6492,11 +6489,11 @@
         <v>1113223</v>
       </c>
       <c r="F76" s="12">
-        <v>800061.26</v>
+        <v>800061</v>
       </c>
       <c r="G76" s="12">
         <f t="shared" si="2"/>
-        <v>313161.74</v>
+        <v>313162</v>
       </c>
       <c r="H76" s="13">
         <v>18571</v>
@@ -6564,11 +6561,11 @@
         <v>10210561</v>
       </c>
       <c r="F77" s="12">
-        <v>5169737.21</v>
+        <v>5169737</v>
       </c>
       <c r="G77" s="12">
         <f t="shared" si="2"/>
-        <v>5040823.79</v>
+        <v>5040824</v>
       </c>
       <c r="H77" s="13">
         <v>247745</v>
@@ -6780,11 +6777,11 @@
         <v>28983131</v>
       </c>
       <c r="F80" s="12">
-        <v>13885879.029999999</v>
+        <v>13885879</v>
       </c>
       <c r="G80" s="12">
         <f t="shared" si="2"/>
-        <v>15097251.970000001</v>
+        <v>15097252</v>
       </c>
       <c r="H80" s="13">
         <v>145671</v>
@@ -6924,11 +6921,11 @@
         <v>1481413</v>
       </c>
       <c r="F82" s="12">
-        <v>284000.09999999998</v>
+        <v>284000</v>
       </c>
       <c r="G82" s="12">
         <f t="shared" si="2"/>
-        <v>1197412.8999999999</v>
+        <v>1197413</v>
       </c>
       <c r="H82" s="13">
         <v>12146</v>
@@ -7212,11 +7209,11 @@
         <v>644335</v>
       </c>
       <c r="F86" s="12">
-        <v>229774.55</v>
+        <v>229774</v>
       </c>
       <c r="G86" s="12">
         <f t="shared" si="2"/>
-        <v>414560.45</v>
+        <v>414561</v>
       </c>
       <c r="H86" s="13">
         <v>7897</v>
@@ -7428,11 +7425,11 @@
         <v>10173879</v>
       </c>
       <c r="F89" s="12">
-        <v>8449963.9299999997</v>
+        <v>8449963</v>
       </c>
       <c r="G89" s="12">
         <f t="shared" si="2"/>
-        <v>1723915.0700000003</v>
+        <v>1723916</v>
       </c>
       <c r="H89" s="13">
         <v>12724</v>
@@ -7500,11 +7497,11 @@
         <v>15144433</v>
       </c>
       <c r="F90" s="12">
-        <v>11648225.67</v>
+        <v>11648225</v>
       </c>
       <c r="G90" s="12">
         <f t="shared" si="2"/>
-        <v>3496207.33</v>
+        <v>3496208</v>
       </c>
       <c r="H90" s="13">
         <v>62817</v>
@@ -7572,11 +7569,11 @@
         <v>4013227</v>
       </c>
       <c r="F91" s="12">
-        <v>1696900.32</v>
+        <v>1696900</v>
       </c>
       <c r="G91" s="12">
         <f t="shared" si="2"/>
-        <v>2316326.6799999997</v>
+        <v>2316327</v>
       </c>
       <c r="H91" s="13">
         <v>44627</v>
@@ -7644,11 +7641,11 @@
         <v>5183801</v>
       </c>
       <c r="F92" s="12">
-        <v>3202647.68</v>
+        <v>3202647</v>
       </c>
       <c r="G92" s="12">
         <f t="shared" si="2"/>
-        <v>1981153.3199999998</v>
+        <v>1981154</v>
       </c>
       <c r="H92" s="13">
         <v>275991</v>
@@ -7716,11 +7713,11 @@
         <v>68431441</v>
       </c>
       <c r="F93" s="12">
-        <v>15097789.48</v>
+        <v>15097789</v>
       </c>
       <c r="G93" s="12">
         <f t="shared" si="2"/>
-        <v>53333651.519999996</v>
+        <v>53333652</v>
       </c>
       <c r="H93" s="13">
         <v>339597</v>
@@ -7788,11 +7785,11 @@
         <v>2707860</v>
       </c>
       <c r="F94" s="12">
-        <v>859880.23</v>
+        <v>859880</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="2"/>
-        <v>1847979.77</v>
+        <v>1847980</v>
       </c>
       <c r="H94" s="13">
         <v>11143</v>
@@ -7860,11 +7857,11 @@
         <v>30807297</v>
       </c>
       <c r="F95" s="12">
-        <v>11060718.300000001</v>
+        <v>11060718</v>
       </c>
       <c r="G95" s="12">
         <f t="shared" si="2"/>
-        <v>19746578.699999999</v>
+        <v>19746579</v>
       </c>
       <c r="H95" s="13">
         <v>283159</v>
@@ -7932,11 +7929,11 @@
         <v>20578057</v>
       </c>
       <c r="F96" s="12">
-        <v>13079076.93</v>
+        <v>13079076</v>
       </c>
       <c r="G96" s="12">
         <f t="shared" si="2"/>
-        <v>7498980.0700000003</v>
+        <v>7498981</v>
       </c>
       <c r="H96" s="13">
         <v>124826</v>
@@ -8004,11 +8001,11 @@
         <v>1734365</v>
       </c>
       <c r="F97" s="12">
-        <v>588421.25</v>
+        <v>588421</v>
       </c>
       <c r="G97" s="12">
         <f t="shared" si="2"/>
-        <v>1145943.75</v>
+        <v>1145944</v>
       </c>
       <c r="H97" s="13">
         <v>44181</v>
@@ -8076,11 +8073,11 @@
         <v>1382696</v>
       </c>
       <c r="F98" s="12">
-        <v>579391.56999999995</v>
+        <v>579391</v>
       </c>
       <c r="G98" s="12">
         <f t="shared" si="2"/>
-        <v>803304.43</v>
+        <v>803305</v>
       </c>
       <c r="H98" s="13">
         <v>48579</v>
@@ -8148,11 +8145,11 @@
         <v>15031837</v>
       </c>
       <c r="F99" s="12">
-        <v>4688663.34</v>
+        <v>4688663</v>
       </c>
       <c r="G99" s="12">
         <f t="shared" si="2"/>
-        <v>10343173.66</v>
+        <v>10343174</v>
       </c>
       <c r="H99" s="13">
         <v>2887250</v>
@@ -8220,11 +8217,11 @@
         <v>4940478</v>
       </c>
       <c r="F100" s="12">
-        <v>3332102.02</v>
+        <v>3332102</v>
       </c>
       <c r="G100" s="12">
         <f t="shared" si="2"/>
-        <v>1608375.98</v>
+        <v>1608376</v>
       </c>
       <c r="H100" s="13">
         <v>188950</v>
@@ -8292,11 +8289,11 @@
         <v>867100</v>
       </c>
       <c r="F101" s="12">
-        <v>140351.09</v>
+        <v>140351</v>
       </c>
       <c r="G101" s="12">
         <f t="shared" si="2"/>
-        <v>726748.91</v>
+        <v>726749</v>
       </c>
       <c r="H101" s="13">
         <v>718</v>

--- a/data_set_cleared.xlsx
+++ b/data_set_cleared.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31FC44-1D64-1745-90B0-2DB0A65D9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955DD2B4-029B-C140-AD19-F41130134B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A2:W902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3465,11 +3465,11 @@
         <v>244865</v>
       </c>
       <c r="F34" s="12">
-        <v>244865</v>
+        <v>200865</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="H34" s="13">
         <v>284980</v>
